--- a/Homologação/Telegram BOT/Comercial/Extrato/Resultado Ulisses Bacci.xlsx
+++ b/Homologação/Telegram BOT/Comercial/Extrato/Resultado Ulisses Bacci.xlsx
@@ -621,7 +621,7 @@
         <v>56</v>
       </c>
       <c r="J2">
-        <v>46099.45</v>
+        <v>70655.35000000001</v>
       </c>
       <c r="K2">
         <v>-44.25</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>46055.2</v>
+        <v>70611.10000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -665,19 +665,19 @@
         <v>56</v>
       </c>
       <c r="J3">
-        <v>37227.77</v>
+        <v>73700.95</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-1697.28</v>
+        <v>-3956.24</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>35530.49</v>
+        <v>69744.71000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -709,7 +709,7 @@
         <v>56</v>
       </c>
       <c r="J4">
-        <v>6188.12</v>
+        <v>43928.86</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6188.12</v>
+        <v>43928.86</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -753,7 +753,7 @@
         <v>56</v>
       </c>
       <c r="J5">
-        <v>5493.01</v>
+        <v>14033.4</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5493.01</v>
+        <v>14033.4</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -841,7 +841,7 @@
         <v>56</v>
       </c>
       <c r="J7">
-        <v>34331.09</v>
+        <v>55508.79</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>34331.09</v>
+        <v>55508.79</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -885,7 +885,7 @@
         <v>56</v>
       </c>
       <c r="J8">
-        <v>34253.58</v>
+        <v>63532.36</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>34253.58</v>
+        <v>63532.36</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -929,7 +929,7 @@
         <v>56</v>
       </c>
       <c r="J9">
-        <v>32801.4</v>
+        <v>54629.9</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>30239.74</v>
+        <v>52068.24</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -973,7 +973,7 @@
         <v>56</v>
       </c>
       <c r="J10">
-        <v>8271.129999999999</v>
+        <v>17041.13</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>8271.129999999999</v>
+        <v>17041.13</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1017,7 +1017,7 @@
         <v>56</v>
       </c>
       <c r="J11">
-        <v>8226.23</v>
+        <v>11261.53</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>8226.23</v>
+        <v>11261.53</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1061,7 +1061,7 @@
         <v>56</v>
       </c>
       <c r="J12">
-        <v>12910.49</v>
+        <v>24158.49</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11468.97</v>
+        <v>22716.97</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1105,7 +1105,7 @@
         <v>56</v>
       </c>
       <c r="J13">
-        <v>24351.22</v>
+        <v>71985.91</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>24351.22</v>
+        <v>71985.91</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1193,7 +1193,7 @@
         <v>56</v>
       </c>
       <c r="J15">
-        <v>34476.26</v>
+        <v>60484.94</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>34476.26</v>
+        <v>60484.94</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1237,19 +1237,19 @@
         <v>56</v>
       </c>
       <c r="J16">
-        <v>33042.36</v>
+        <v>62680.31</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>-536.29</v>
+        <v>-5786.81</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>-824.3200000000001</v>
       </c>
       <c r="N16">
-        <v>32506.07</v>
+        <v>56069.18</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1281,7 +1281,7 @@
         <v>56</v>
       </c>
       <c r="J17">
-        <v>5041.46</v>
+        <v>7167.26</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5041.46</v>
+        <v>7167.26</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1325,7 +1325,7 @@
         <v>56</v>
       </c>
       <c r="J18">
-        <v>12973.66</v>
+        <v>24953.13</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12973.66</v>
+        <v>24953.13</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1369,7 +1369,7 @@
         <v>56</v>
       </c>
       <c r="J19">
-        <v>8742.969999999999</v>
+        <v>18270.76</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>8742.969999999999</v>
+        <v>18270.76</v>
       </c>
     </row>
   </sheetData>
